--- a/config_1.4/shoping_config_xiaomi.xlsx
+++ b/config_1.4/shoping_config_xiaomi.xlsx
@@ -11706,10 +11706,10 @@
   <dimension ref="A1:AIG790"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="7" ySplit="1" topLeftCell="W647" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="7" ySplit="1" topLeftCell="H761" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F670" sqref="F670"/>
+      <selection pane="bottomRight" activeCell="I792" sqref="I792"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -69841,7 +69841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:41" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A769" s="21">
         <v>768</v>
       </c>
@@ -69913,7 +69913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:41" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A770" s="21">
         <v>769</v>
       </c>
@@ -69985,7 +69985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:41" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A771" s="21">
         <v>770</v>
       </c>
@@ -70057,7 +70057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:41" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A772" s="21">
         <v>771</v>
       </c>
@@ -70129,7 +70129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A773" s="21">
         <v>772</v>
       </c>
@@ -70163,41 +70163,41 @@
       <c r="Q773" s="30">
         <v>600</v>
       </c>
-      <c r="S773" s="30" t="s">
+      <c r="R773" s="30" t="s">
         <v>2213</v>
       </c>
-      <c r="T773" s="54" t="s">
+      <c r="S773" s="54" t="s">
         <v>2134</v>
       </c>
-      <c r="Y773" s="30" t="s">
+      <c r="X773" s="30" t="s">
         <v>2135</v>
       </c>
+      <c r="Y773" s="30">
+        <v>99999999</v>
+      </c>
       <c r="Z773" s="30">
-        <v>99999999</v>
+        <v>1640044800</v>
       </c>
       <c r="AA773" s="30">
-        <v>1640044800</v>
+        <v>1640620799</v>
       </c>
       <c r="AB773" s="30">
-        <v>1640620799</v>
-      </c>
-      <c r="AC773" s="30">
         <v>76</v>
       </c>
+      <c r="AI773" s="30">
+        <v>1</v>
+      </c>
       <c r="AJ773" s="30">
         <v>1</v>
       </c>
-      <c r="AK773" s="30">
+      <c r="AM773" s="30">
         <v>1</v>
       </c>
       <c r="AN773" s="30">
         <v>1</v>
       </c>
-      <c r="AO773" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="774" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="774" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A774" s="21">
         <v>773</v>
       </c>
@@ -70231,41 +70231,41 @@
       <c r="Q774" s="30">
         <v>1000</v>
       </c>
-      <c r="S774" s="30" t="s">
+      <c r="R774" s="30" t="s">
         <v>2213</v>
       </c>
-      <c r="T774" s="54" t="s">
+      <c r="S774" s="54" t="s">
         <v>2137</v>
       </c>
-      <c r="Y774" s="30" t="s">
+      <c r="X774" s="30" t="s">
         <v>2138</v>
       </c>
+      <c r="Y774" s="30">
+        <v>99999999</v>
+      </c>
       <c r="Z774" s="30">
-        <v>99999999</v>
+        <v>1640044800</v>
       </c>
       <c r="AA774" s="30">
-        <v>1640044800</v>
+        <v>1640620799</v>
       </c>
       <c r="AB774" s="30">
-        <v>1640620799</v>
-      </c>
-      <c r="AC774" s="30">
         <v>76</v>
       </c>
+      <c r="AI774" s="30">
+        <v>1</v>
+      </c>
       <c r="AJ774" s="30">
         <v>1</v>
       </c>
-      <c r="AK774" s="30">
+      <c r="AM774" s="30">
         <v>1</v>
       </c>
       <c r="AN774" s="30">
         <v>1</v>
       </c>
-      <c r="AO774" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="775" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="775" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A775" s="21">
         <v>774</v>
       </c>
@@ -70299,41 +70299,41 @@
       <c r="Q775" s="30">
         <v>1800</v>
       </c>
-      <c r="S775" s="30" t="s">
+      <c r="R775" s="30" t="s">
         <v>2213</v>
       </c>
-      <c r="T775" s="54" t="s">
+      <c r="S775" s="54" t="s">
         <v>2140</v>
       </c>
-      <c r="Y775" s="30" t="s">
+      <c r="X775" s="30" t="s">
         <v>482</v>
       </c>
+      <c r="Y775" s="30">
+        <v>99999999</v>
+      </c>
       <c r="Z775" s="30">
-        <v>99999999</v>
+        <v>1640044800</v>
       </c>
       <c r="AA775" s="30">
-        <v>1640044800</v>
+        <v>1640620799</v>
       </c>
       <c r="AB775" s="30">
-        <v>1640620799</v>
-      </c>
-      <c r="AC775" s="30">
         <v>76</v>
       </c>
+      <c r="AI775" s="30">
+        <v>1</v>
+      </c>
       <c r="AJ775" s="30">
         <v>1</v>
       </c>
-      <c r="AK775" s="30">
+      <c r="AM775" s="30">
         <v>1</v>
       </c>
       <c r="AN775" s="30">
         <v>1</v>
       </c>
-      <c r="AO775" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="776" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="776" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A776" s="21">
         <v>775</v>
       </c>
@@ -70367,41 +70367,41 @@
       <c r="Q776" s="30">
         <v>3400</v>
       </c>
-      <c r="S776" s="30" t="s">
+      <c r="R776" s="30" t="s">
         <v>2214</v>
       </c>
-      <c r="T776" s="54" t="s">
+      <c r="S776" s="54" t="s">
         <v>2142</v>
       </c>
-      <c r="Y776" s="30" t="s">
+      <c r="X776" s="30" t="s">
         <v>482</v>
       </c>
+      <c r="Y776" s="30">
+        <v>99999999</v>
+      </c>
       <c r="Z776" s="30">
-        <v>99999999</v>
+        <v>1640044800</v>
       </c>
       <c r="AA776" s="30">
-        <v>1640044800</v>
+        <v>1640620799</v>
       </c>
       <c r="AB776" s="30">
-        <v>1640620799</v>
-      </c>
-      <c r="AC776" s="30">
         <v>76</v>
       </c>
+      <c r="AI776" s="30">
+        <v>1</v>
+      </c>
       <c r="AJ776" s="30">
         <v>1</v>
       </c>
-      <c r="AK776" s="30">
+      <c r="AM776" s="30">
         <v>1</v>
       </c>
       <c r="AN776" s="30">
         <v>1</v>
       </c>
-      <c r="AO776" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="777" spans="1:41" x14ac:dyDescent="0.2">
+    </row>
+    <row r="777" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A777" s="21">
         <v>776</v>
       </c>
@@ -70469,7 +70469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="778" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A778" s="21">
         <v>777</v>
       </c>
@@ -70537,7 +70537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="779" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A779" s="21">
         <v>778</v>
       </c>
@@ -70605,7 +70605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="780" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A780" s="21">
         <v>779</v>
       </c>
@@ -70673,7 +70673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="781" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A781" s="21">
         <v>780</v>
       </c>
@@ -70741,7 +70741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="782" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A782" s="21">
         <v>781</v>
       </c>
@@ -70809,7 +70809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="783" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A783" s="21">
         <v>782</v>
       </c>
@@ -70877,7 +70877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="784" spans="1:41" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A784" s="21">
         <v>783</v>
       </c>
